--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A54406F-C7E2-4D61-AAF5-CBC37044D40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219D15E8-755F-4589-BC9B-1C9CBA18A988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="18576" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>Datum</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Zauberstab-Spiessli</t>
+  </si>
+  <si>
+    <t>Zaubertrank</t>
   </si>
 </sst>
 </file>
@@ -187,8 +190,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
-  <autoFilter ref="A1:E26" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+  <autoFilter ref="A1:E27" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7C6D28F5-89B2-4342-9089-E87764A5F47F}" name="Spezialpreis"/>
@@ -497,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,6 +957,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45599</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219D15E8-755F-4589-BC9B-1C9CBA18A988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F475D00A-A51E-4B32-ACB3-15A9B438193F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>Datum</t>
   </si>
@@ -190,8 +190,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
-  <autoFilter ref="A1:E27" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+  <autoFilter ref="A1:E29" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7C6D28F5-89B2-4342-9089-E87764A5F47F}" name="Spezialpreis"/>
@@ -500,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -974,6 +974,40 @@
         <v>3</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45606</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45606</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A54406F-C7E2-4D61-AAF5-CBC37044D40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F475D00A-A51E-4B32-ACB3-15A9B438193F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="18576" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>Datum</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Zauberstab-Spiessli</t>
+  </si>
+  <si>
+    <t>Zaubertrank</t>
   </si>
 </sst>
 </file>
@@ -187,8 +190,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
-  <autoFilter ref="A1:E26" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+  <autoFilter ref="A1:E29" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7C6D28F5-89B2-4342-9089-E87764A5F47F}" name="Spezialpreis"/>
@@ -497,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,6 +957,57 @@
         <v>9</v>
       </c>
     </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45599</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45606</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45606</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F475D00A-A51E-4B32-ACB3-15A9B438193F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED4C008-923A-4BB0-9736-E258EBEAEE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="2964" yWindow="1884" windowWidth="15684" windowHeight="11832" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Zaubertrank</t>
+  </si>
+  <si>
+    <t>Rotwein</t>
   </si>
 </sst>
 </file>
@@ -190,8 +193,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
-  <autoFilter ref="A1:E29" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+  <autoFilter ref="A1:E30" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7C6D28F5-89B2-4342-9089-E87764A5F47F}" name="Spezialpreis"/>
@@ -500,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1008,6 +1011,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="2">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED4C008-923A-4BB0-9736-E258EBEAEE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF0EFDA-9E71-4EE4-9B0C-FBD3A3D194F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="1884" windowWidth="15684" windowHeight="11832" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="3312" yWindow="2232" windowWidth="15684" windowHeight="11832" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -126,6 +126,24 @@
   </si>
   <si>
     <t>Rotwein</t>
+  </si>
+  <si>
+    <t>Glühwein</t>
+  </si>
+  <si>
+    <t>Punsch</t>
+  </si>
+  <si>
+    <t>Tee</t>
+  </si>
+  <si>
+    <t>Wienerli und Brot</t>
+  </si>
+  <si>
+    <t>Spez 5</t>
+  </si>
+  <si>
+    <t>Raclette - Schnitte</t>
   </si>
 </sst>
 </file>
@@ -193,8 +211,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
-  <autoFilter ref="A1:E30" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+  <autoFilter ref="A1:E36" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7C6D28F5-89B2-4342-9089-E87764A5F47F}" name="Spezialpreis"/>
@@ -503,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,6 +1043,90 @@
         <v>7</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45634</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45641</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF0EFDA-9E71-4EE4-9B0C-FBD3A3D194F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D0D4DB-BE98-45C0-ACA3-F363E150A217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="2232" windowWidth="15684" windowHeight="11832" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>Datum</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>Raclette - Schnitte</t>
+  </si>
+  <si>
+    <t>Weisswein</t>
+  </si>
+  <si>
+    <t>Buch: Buchspazierer</t>
   </si>
 </sst>
 </file>
@@ -211,8 +217,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
-  <autoFilter ref="A1:E36" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+  <autoFilter ref="A1:E39" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7C6D28F5-89B2-4342-9089-E87764A5F47F}" name="Spezialpreis"/>
@@ -521,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1127,6 +1133,48 @@
         <v>4</v>
       </c>
     </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="2">
+        <v>23.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\R Packages\Kinoklub\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD031016-809E-422A-9775-E576C1B1870F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB27B8E-7693-4C68-A725-4EEA05E127B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="18576" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Datum</t>
   </si>
@@ -53,10 +53,7 @@
     <t>Spez 1</t>
   </si>
   <si>
-    <t>Leibniz Kekse Dschungel</t>
-  </si>
-  <si>
-    <t>Zaubertrank</t>
+    <t>Zuckerwatte</t>
   </si>
 </sst>
 </file>
@@ -101,7 +98,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -140,9 +137,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +177,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -286,7 +283,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,21 +433,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,9 +461,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45748</v>
+        <v>45676</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -475,20 +472,6 @@
         <v>5</v>
       </c>
       <c r="D2" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45964</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
         <v>3</v>
       </c>
     </row>

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\R Packages\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB27B8E-7693-4C68-A725-4EEA05E127B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282FC8BC-C59A-4144-AA8E-12A71D6B79D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="18576" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Spezpreise" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -98,7 +98,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -121,10 +121,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D3">
-    <sortCondition ref="A1:A3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D2">
+    <sortCondition ref="A1:A2"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="1"/>
@@ -137,9 +137,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -177,7 +177,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -283,7 +283,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,18 +436,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45676</v>
       </c>

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D0D4DB-BE98-45C0-ACA3-F363E150A217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF60144B-A144-449A-A823-9FDFD1805B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
   <si>
     <t>Datum</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Buch: Buchspazierer</t>
+  </si>
+  <si>
+    <t>Popcorn</t>
+  </si>
+  <si>
+    <t>Getränke</t>
   </si>
 </sst>
 </file>
@@ -217,8 +223,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
-  <autoFilter ref="A1:E39" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+  <autoFilter ref="A1:E41" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7C6D28F5-89B2-4342-9089-E87764A5F47F}" name="Spezialpreis"/>
@@ -527,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1175,6 +1181,34 @@
         <v>23.5</v>
       </c>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45512</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45512</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\R Packages\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282FC8BC-C59A-4144-AA8E-12A71D6B79D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2303404-16CD-4029-90B0-7AA0C935FD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Spezpreise" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Datum</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Zuckerwatte</t>
+  </si>
+  <si>
+    <t>Kaffee &amp; Gipfeli</t>
   </si>
 </sst>
 </file>
@@ -121,8 +124,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:D3" totalsRowShown="0">
+  <autoFilter ref="A1:D3" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D2">
     <sortCondition ref="A1:A2"/>
   </sortState>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,6 +478,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45683</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\R Packages\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2303404-16CD-4029-90B0-7AA0C935FD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFF4240-5381-4173-B837-4A1C443DBD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="3930" yWindow="3390" windowWidth="28770" windowHeight="15450" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Spezpreise" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Datum</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Kaffee &amp; Gipfeli</t>
+  </si>
+  <si>
+    <t>Suisanummer</t>
+  </si>
+  <si>
+    <t>1021.174</t>
   </si>
 </sst>
 </file>
@@ -95,15 +101,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
     </dxf>
@@ -124,16 +134,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E3" totalsRowShown="0">
+  <autoFilter ref="A1:E3" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E2">
     <sortCondition ref="A1:A2"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="1"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{EECEAC1A-EF91-4BC0-8065-52F3B558742C}" name="Suisanummer" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{7C6D28F5-89B2-4342-9089-E87764A5F47F}" name="Spezialpreis"/>
     <tableColumn id="3" xr3:uid="{7FEC0B3F-B7F7-492A-A2CC-4C43E7370E3F}" name="Artikelname"/>
-    <tableColumn id="4" xr3:uid="{3EC8A94D-5F55-472D-905C-204DD835F9D2}" name="Verkaufspreis" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{3EC8A94D-5F55-472D-905C-204DD835F9D2}" name="Verkaufspreis" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -436,59 +447,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45676</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3">
+        <v>1019.343</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45683</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>5</v>
       </c>
     </row>

--- a/Input/Spezialpreisekiosk.xlsx
+++ b/Input/Spezialpreisekiosk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\R Packages\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFF4240-5381-4173-B837-4A1C443DBD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DBD2E1-0995-4967-9D94-9A9BB307A9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="3390" windowWidth="28770" windowHeight="15450" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
+    <workbookView xWindow="38430" yWindow="750" windowWidth="28770" windowHeight="15450" xr2:uid="{5CFCAA73-5DB4-4EB4-81C9-1C9C0D98D4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Spezpreise" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Datum</t>
   </si>
@@ -89,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,25 +97,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -134,17 +150,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E3" totalsRowShown="0">
-  <autoFilter ref="A1:E3" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}" name="Table1" displayName="Table1" ref="A1:E4" totalsRowShown="0">
+  <autoFilter ref="A1:E4" xr:uid="{9A44B4B4-A546-4A04-B7DF-39B4610A3FD4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E2">
     <sortCondition ref="A1:A2"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2E4FAC83-4FC6-4E6F-87B3-8377FC66120C}" name="Datum" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{EECEAC1A-EF91-4BC0-8065-52F3B558742C}" name="Suisanummer" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{EECEAC1A-EF91-4BC0-8065-52F3B558742C}" name="Suisanummer" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7C6D28F5-89B2-4342-9089-E87764A5F47F}" name="Spezialpreis"/>
     <tableColumn id="3" xr3:uid="{7FEC0B3F-B7F7-492A-A2CC-4C43E7370E3F}" name="Artikelname"/>
-    <tableColumn id="4" xr3:uid="{3EC8A94D-5F55-472D-905C-204DD835F9D2}" name="Verkaufspreis" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{3EC8A94D-5F55-472D-905C-204DD835F9D2}" name="Verkaufspreis" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -447,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD21FE1F-65EF-43DF-AD1F-FCA81656A71F}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,6 +529,23 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45690</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
